--- a/기타/테이블 정의서/테이블 정의서.xlsx
+++ b/기타/테이블 정의서/테이블 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin00\OneDrive\문서\GitHub\Web-Project\기타\테이블 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324A4BD-759E-4AEE-B09C-6901D0A70897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C28D1C4-E464-4C9B-AAAA-3F05461A3476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>테이블 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원
-USER_Table</t>
-  </si>
-  <si>
     <t>논리이름</t>
   </si>
   <si>
@@ -139,9 +135,6 @@
   </si>
   <si>
     <t>regdate</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
   </si>
   <si>
     <t>회원번호(PK)</t>
@@ -220,6 +213,64 @@
   <si>
     <t>영화이름
 DailyMovie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원
+User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시판
+Notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 수정날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +636,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,33 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J26"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -951,45 +999,45 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="G4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="G4" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>1</v>
@@ -1006,25 +1054,25 @@
     </row>
     <row r="6" spans="2:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>5</v>
@@ -1032,94 +1080,94 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>6</v>
@@ -1127,197 +1175,224 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="G11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="G14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-    </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20" s="22"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="B20" s="15"/>
     </row>
     <row r="25" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="26" spans="2:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="28" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B28:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기타/테이블 정의서/테이블 정의서.xlsx
+++ b/기타/테이블 정의서/테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin00\OneDrive\문서\GitHub\Web-Project\기타\테이블 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C28D1C4-E464-4C9B-AAAA-3F05461A3476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA28AB16-537B-4DE8-9F3D-AA84310AA02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>테이블 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,34 @@
   </si>
   <si>
     <t>마지막 수정날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓴이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTNULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT DEFAULT 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,21 +1004,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
@@ -1305,6 +1333,12 @@
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
+      <c r="G28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="11" t="s">
@@ -1319,6 +1353,18 @@
       <c r="E29" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="G29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="2:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="s">
@@ -1333,6 +1379,18 @@
       <c r="E30" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
@@ -1347,6 +1405,18 @@
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
@@ -1361,8 +1431,20 @@
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="G32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>70</v>
       </c>
@@ -1373,26 +1455,73 @@
         <v>66</v>
       </c>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="7"/>
+      <c r="G34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:J28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
